--- a/data/trans_orig/P79A2_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P79A2_2023-Clase-trans_orig.xlsx
@@ -741,16 +741,16 @@
         <v>9658</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5392</v>
+        <v>5311</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>10867</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8887499069322985</v>
+        <v>0.8887499069322984</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4962001041330567</v>
+        <v>0.4887519362839474</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -783,19 +783,19 @@
         <v>11480</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7063</v>
+        <v>7448</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13408</v>
+        <v>13428</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8201376345540956</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5045722281099477</v>
+        <v>0.5320596401652707</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9578488099932355</v>
+        <v>0.959281967104967</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5475</v>
+        <v>5556</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1112500930677016</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5038171418975147</v>
+        <v>0.5112365757324201</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -854,19 +854,19 @@
         <v>2518</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6935</v>
+        <v>6550</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1798623654459043</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04215119000676432</v>
+        <v>0.04071803289503299</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4954277718900523</v>
+        <v>0.4679403598347294</v>
       </c>
     </row>
     <row r="6">
@@ -958,16 +958,16 @@
         <v>5803</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2313</v>
+        <v>2366</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>6921</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8385270577352443</v>
+        <v>0.8385270577352444</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3342111172817614</v>
+        <v>0.3418295690947156</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -992,7 +992,7 @@
         <v>9956</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6265</v>
+        <v>6673</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>11074</v>
@@ -1001,7 +1001,7 @@
         <v>0.8990839781620749</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5657309358032805</v>
+        <v>0.6026156649771511</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4571</v>
+        <v>4555</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1614729422647556</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6604018557964129</v>
+        <v>0.6581704309052844</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4809</v>
+        <v>4401</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1009160218379252</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4342690641967174</v>
+        <v>0.397384335022849</v>
       </c>
     </row>
     <row r="9">
@@ -1159,16 +1159,16 @@
         <v>4900</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1690</v>
+        <v>1683</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>7239</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6768874679716136</v>
+        <v>0.6768874679716134</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2334722500777643</v>
+        <v>0.2324893844195955</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1201,19 +1201,19 @@
         <v>6832</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3366</v>
+        <v>3618</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9140</v>
+        <v>9130</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.689612564842535</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3397892457921955</v>
+        <v>0.3651699653759649</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9225386516548053</v>
+        <v>0.9215728632614212</v>
       </c>
     </row>
     <row r="11">
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5551</v>
+        <v>5533</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3231125320283865</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7667811081178065</v>
+        <v>0.7643202161567253</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1272,19 +1272,19 @@
         <v>3075</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6541</v>
+        <v>6289</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.310387435157465</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07746134834519441</v>
+        <v>0.07842713673857871</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6602107542078041</v>
+        <v>0.6348300346240354</v>
       </c>
     </row>
     <row r="12">
@@ -1376,19 +1376,19 @@
         <v>18051</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11838</v>
+        <v>12230</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22069</v>
+        <v>21866</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.7232108169278191</v>
+        <v>0.7232108169278192</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4742792321802185</v>
+        <v>0.4899904828182048</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8842091748835926</v>
+        <v>0.8760734189135282</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1397,19 +1397,19 @@
         <v>13381</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9482</v>
+        <v>9607</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15583</v>
+        <v>15508</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.821800988472422</v>
+        <v>0.8218009884724221</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5822957977949584</v>
+        <v>0.59001332523857</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9570232327597531</v>
+        <v>0.9523797745518654</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -1418,19 +1418,19 @@
         <v>31432</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24383</v>
+        <v>25372</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35894</v>
+        <v>36435</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.7621357441259586</v>
+        <v>0.7621357441259589</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5912198866842248</v>
+        <v>0.6152011610105689</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8703350334904818</v>
+        <v>0.8834349412406298</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>6908</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2890</v>
+        <v>3093</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13121</v>
+        <v>12729</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2767891830721808</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1157908251164072</v>
+        <v>0.1239265810864718</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5257207678197816</v>
+        <v>0.5100095171817944</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1468,19 +1468,19 @@
         <v>2902</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>700</v>
+        <v>775</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6801</v>
+        <v>6676</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1781990115275779</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04297676724024688</v>
+        <v>0.04762022544813442</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4177042022050415</v>
+        <v>0.4099866747614297</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -1489,19 +1489,19 @@
         <v>9810</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5348</v>
+        <v>4807</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16859</v>
+        <v>15870</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2378642558740412</v>
+        <v>0.2378642558740413</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1296649665095181</v>
+        <v>0.1165650587593703</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.408780113315775</v>
+        <v>0.3847988389894311</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>8197</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4579</v>
+        <v>4545</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10848</v>
+        <v>10989</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6875751569247609</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3840877144468042</v>
+        <v>0.3812923659898994</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9100173754286069</v>
+        <v>0.9218115918882158</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -1614,19 +1614,19 @@
         <v>20950</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13121</v>
+        <v>12942</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25400</v>
+        <v>25606</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6870645411872165</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4303149388819719</v>
+        <v>0.4244356091326634</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8330120437679032</v>
+        <v>0.839759842097652</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>34</v>
@@ -1635,19 +1635,19 @@
         <v>29146</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20636</v>
+        <v>21101</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34354</v>
+        <v>34628</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6872080593914319</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4865693631460165</v>
+        <v>0.4975139025666481</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8100001216344729</v>
+        <v>0.8164739912516796</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>3724</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1073</v>
+        <v>932</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7342</v>
+        <v>7376</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.312424843075239</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.089982624571394</v>
+        <v>0.07818840811178412</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6159122855531958</v>
+        <v>0.6187076340101011</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1685,19 +1685,19 @@
         <v>9542</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5092</v>
+        <v>4886</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17371</v>
+        <v>17550</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3129354588127835</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1669879562320969</v>
+        <v>0.1602401579023481</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5696850611180291</v>
+        <v>0.5755643908673356</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -1706,19 +1706,19 @@
         <v>13266</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8058</v>
+        <v>7784</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21776</v>
+        <v>21311</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3127919406085682</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1899998783655271</v>
+        <v>0.1835260087483208</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5134306368539834</v>
+        <v>0.5024860974333523</v>
       </c>
     </row>
     <row r="18">
@@ -1823,19 +1823,19 @@
         <v>15250</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8169</v>
+        <v>8926</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20354</v>
+        <v>20422</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.6293126268132151</v>
+        <v>0.6293126268132149</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3371072213928841</v>
+        <v>0.3683666851023933</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8399701911607328</v>
+        <v>0.8427840157064995</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -1844,19 +1844,19 @@
         <v>17072</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9104</v>
+        <v>9956</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22094</v>
+        <v>21904</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6552365225601915</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3494373602080089</v>
+        <v>0.3821249010733728</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8480186362865026</v>
+        <v>0.8407319409070151</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>8982</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3878</v>
+        <v>3810</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16063</v>
+        <v>15306</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3706873731867851</v>
+        <v>0.370687373186785</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1600298088392673</v>
+        <v>0.1572159842935</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6628927786071159</v>
+        <v>0.6316333148976067</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1907,19 +1907,19 @@
         <v>8982</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3960</v>
+        <v>4150</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16950</v>
+        <v>16098</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.3447634774398087</v>
+        <v>0.3447634774398086</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1519813637134974</v>
+        <v>0.1592680590929848</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6505626397919914</v>
+        <v>0.6178750989266275</v>
       </c>
     </row>
     <row r="21">
@@ -2011,19 +2011,19 @@
         <v>48431</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39437</v>
+        <v>40001</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54753</v>
+        <v>54638</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7599488857615471</v>
+        <v>0.7599488857615472</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6188157458325836</v>
+        <v>0.6276707227401226</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8591599178407517</v>
+        <v>0.8573492826386717</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>66</v>
@@ -2032,19 +2032,19 @@
         <v>57487</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>45958</v>
+        <v>47395</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>65458</v>
+        <v>65694</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7100893467877789</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5676717140920039</v>
+        <v>0.5854269333842911</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8085419332601022</v>
+        <v>0.811462701925562</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>106</v>
@@ -2053,19 +2053,19 @@
         <v>105919</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>92805</v>
+        <v>92432</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>117014</v>
+        <v>115873</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7320506101348463</v>
+        <v>0.7320506101348464</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6414130382624414</v>
+        <v>0.6388359799240653</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8087327887911071</v>
+        <v>0.8008490762331475</v>
       </c>
     </row>
     <row r="23">
@@ -2082,19 +2082,19 @@
         <v>15298</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8976</v>
+        <v>9091</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24292</v>
+        <v>23728</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2400511142384529</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1408400821592485</v>
+        <v>0.1426507173613286</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3811842541674165</v>
+        <v>0.3723292772598775</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>24</v>
@@ -2103,19 +2103,19 @@
         <v>23471</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>15500</v>
+        <v>15264</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>35000</v>
+        <v>33563</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2899106532122209</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1914580667398979</v>
+        <v>0.1885372980744379</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.432328285907996</v>
+        <v>0.414573066615709</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>38</v>
@@ -2124,19 +2124,19 @@
         <v>38769</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>27674</v>
+        <v>28815</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>51883</v>
+        <v>52256</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2679493898651537</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1912672112088927</v>
+        <v>0.1991509237668525</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3585869617375587</v>
+        <v>0.3611640200759344</v>
       </c>
     </row>
     <row r="24">
